--- a/reports/vivado/OperationChaining7nsSolution/power/OperationChaining7nsClocksPowerReport.xlsx
+++ b/reports/vivado/OperationChaining7nsSolution/power/OperationChaining7nsClocksPowerReport.xlsx
@@ -186,7 +186,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>7.93763087131083E-4</v>
+        <v>0.0019918910693377256</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>10</v>
@@ -218,7 +218,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>7.937631453387439E-4</v>
+        <v>0.001991890836507082</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>12</v>
@@ -236,13 +236,13 @@
         <v>13</v>
       </c>
       <c r="G3" t="n" s="7">
-        <v>259.0</v>
+        <v>260.0</v>
       </c>
       <c r="H3" t="n" s="7">
-        <v>144.0</v>
+        <v>70.0</v>
       </c>
       <c r="I3" t="n" s="2">
-        <v>1.798611044883728</v>
+        <v>3.7142860889434814</v>
       </c>
       <c r="J3" t="s" s="4">
         <v>13</v>
@@ -250,7 +250,7 @@
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" t="n" s="8">
-        <v>7.937631453387439E-4</v>
+        <v>0.001991890836507082</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>12</v>
